--- a/myapp/files/9_MethodComparePercent/Scenario 287.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 287.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>2408</v>
+        <v>15632</v>
       </c>
       <c r="F2" t="n">
-        <v>3.90421064578368</v>
+        <v>2.10049932545377</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J2" t="n">
-        <v>2.32558139534884</v>
+        <v>2.15827338129496</v>
       </c>
       <c r="K2" t="n">
         <v>2</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>774</v>
+        <v>16636</v>
       </c>
       <c r="F3" t="n">
-        <v>1.25492485043047</v>
+        <v>2.23540857076823</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.32558139534884</v>
+        <v>1.79856115107914</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>12580</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1.69039671917915</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1.43884892086331</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>16849</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>2.26402975528215</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>2.15827338129496</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>19497</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>2.61984617121112</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -745,10 +745,10 @@
         <v>1.51515151515152</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>2.15827338129496</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>13037</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1.75180461271372</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.43884892086331</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>494</v>
+        <v>22309</v>
       </c>
       <c r="F8" t="n">
-        <v>0.800946868362599</v>
+        <v>2.99769955549822</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J8" t="n">
-        <v>2.32558139534884</v>
+        <v>2.51798561151079</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>1539</v>
+        <v>19344</v>
       </c>
       <c r="F9" t="n">
-        <v>2.49525755143733</v>
+        <v>2.59928729219408</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
@@ -859,10 +859,10 @@
         <v>3.03030303030303</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J9" t="n">
-        <v>2.32558139534884</v>
+        <v>2.51798561151079</v>
       </c>
       <c r="K9" t="n">
         <v>1</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>190</v>
+        <v>26312</v>
       </c>
       <c r="F10" t="n">
-        <v>0.308056487831769</v>
+        <v>3.53558970389839</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -897,10 +897,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J10" t="n">
-        <v>2.32558139534884</v>
+        <v>4.31654676258993</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>35227</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>4.73351392897646</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -935,16 +935,16 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>4.31654676258993</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
-        <v>4.54545454545454</v>
+        <v>3.03030303030303</v>
       </c>
     </row>
     <row r="12">
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>10854</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1.45847106438557</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.719424460431655</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>1800</v>
+        <v>18791</v>
       </c>
       <c r="F13" t="n">
-        <v>2.91842988472202</v>
+        <v>2.5249797098645</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1011,10 +1011,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J13" t="n">
-        <v>2.32558139534884</v>
+        <v>2.15827338129496</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>1128</v>
+        <v>32151</v>
       </c>
       <c r="F14" t="n">
-        <v>1.82888272775913</v>
+        <v>4.32018640050309</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -1049,10 +1049,10 @@
         <v>1.51515151515152</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J14" t="n">
-        <v>2.32558139534884</v>
+        <v>3.23741007194245</v>
       </c>
       <c r="K14" t="n">
         <v>5</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>5790</v>
+        <v>44995</v>
       </c>
       <c r="F15" t="n">
-        <v>9.38761612918916</v>
+        <v>6.04605726386851</v>
       </c>
       <c r="G15" t="n">
         <v>3</v>
@@ -1087,10 +1087,10 @@
         <v>4.54545454545454</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="J15" t="n">
-        <v>4.65116279069767</v>
+        <v>6.47482014388489</v>
       </c>
       <c r="K15" t="n">
         <v>3</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>7716</v>
+        <v>58414</v>
       </c>
       <c r="F16" t="n">
-        <v>12.5103361058417</v>
+        <v>7.8491918882457</v>
       </c>
       <c r="G16" t="n">
         <v>3</v>
@@ -1125,10 +1125,10 @@
         <v>4.54545454545454</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="J16" t="n">
-        <v>6.97674418604651</v>
+        <v>6.47482014388489</v>
       </c>
       <c r="K16" t="n">
         <v>6</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>14538</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.953496621894</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1163,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1.43884892086331</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>25394</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>3.41223642979613</v>
       </c>
       <c r="G18" t="n">
         <v>2</v>
@@ -1201,10 +1201,10 @@
         <v>3.03030303030303</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>3.59712230215827</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>39190</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>5.26602920704538</v>
       </c>
       <c r="G19" t="n">
         <v>4</v>
@@ -1239,16 +1239,16 @@
         <v>6.06060606060606</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>5.39568345323741</v>
       </c>
       <c r="K19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L19" t="n">
-        <v>4.54545454545454</v>
+        <v>6.06060606060606</v>
       </c>
     </row>
     <row r="20">
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>716</v>
+        <v>61988</v>
       </c>
       <c r="F20" t="n">
-        <v>1.16088655414498</v>
+        <v>8.32943655234318</v>
       </c>
       <c r="G20" t="n">
         <v>18</v>
@@ -1277,10 +1277,10 @@
         <v>27.2727272727273</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="J20" t="n">
-        <v>4.65116279069767</v>
+        <v>9.71223021582734</v>
       </c>
       <c r="K20" t="n">
         <v>5</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>4988</v>
+        <v>59923</v>
       </c>
       <c r="F21" t="n">
-        <v>8.08729348055191</v>
+        <v>8.05195887149223</v>
       </c>
       <c r="G21" t="n">
         <v>10</v>
@@ -1315,10 +1315,10 @@
         <v>15.1515151515152</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="J21" t="n">
-        <v>6.97674418604651</v>
+        <v>8.27338129496403</v>
       </c>
       <c r="K21" t="n">
         <v>6</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>10123</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1.36024530908192</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1353,10 +1353,10 @@
         <v>1.51515151515152</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1.43884892086331</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>105</v>
+        <v>18112</v>
       </c>
       <c r="F23" t="n">
-        <v>0.170241743275451</v>
+        <v>2.43374128599148</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J23" t="n">
-        <v>2.32558139534884</v>
+        <v>2.87769784172662</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>3950</v>
+        <v>31155</v>
       </c>
       <c r="F24" t="n">
-        <v>6.40433224702888</v>
+        <v>4.18635212925488</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1429,16 +1429,16 @@
         <v>1.51515151515152</v>
       </c>
       <c r="I24" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J24" t="n">
-        <v>9.30232558139535</v>
+        <v>4.67625899280575</v>
       </c>
       <c r="K24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L24" t="n">
-        <v>10.6060606060606</v>
+        <v>9.09090909090909</v>
       </c>
     </row>
     <row r="25">
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>7809</v>
+        <v>45424</v>
       </c>
       <c r="F25" t="n">
-        <v>12.6611216498857</v>
+        <v>6.1037027481712</v>
       </c>
       <c r="G25" t="n">
         <v>8</v>
@@ -1467,10 +1467,10 @@
         <v>12.1212121212121</v>
       </c>
       <c r="I25" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="J25" t="n">
-        <v>20.9302325581395</v>
+        <v>8.99280575539568</v>
       </c>
       <c r="K25" t="n">
         <v>5</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>22270</v>
+        <v>75729</v>
       </c>
       <c r="F26" t="n">
-        <v>36.1074630737552</v>
+        <v>10.1758388828869</v>
       </c>
       <c r="G26" t="n">
         <v>12</v>
@@ -1505,10 +1505,10 @@
         <v>18.1818181818182</v>
       </c>
       <c r="I26" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="J26" t="n">
-        <v>27.906976744186</v>
+        <v>9.71223021582734</v>
       </c>
       <c r="K26" t="n">
         <v>16</v>
